--- a/biology/Biochimie/Amylo-alpha-1,6-glucosidase/Amylo-alpha-1,6-glucosidase.xlsx
+++ b/biology/Biochimie/Amylo-alpha-1,6-glucosidase/Amylo-alpha-1,6-glucosidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amylo-α-1,6-glucosidase est une glycoside hydrolase qui hydrolyse des (1→6)-α-D-osidiques de résidus de glucose formant ramification sur une chaîne de résidus de glucose liés par des liaisons α-(1→4). L'enzyme présente chez la levure et chez les mammifères est une protéine contenant deux sites actifs, l'autre activité enzymatique étant semblable à celle de la 4-α-glucanotransférase (EC 2.4.1.25) qui hydrolyse des segments de dextrine liés par des liaisons α-(1→4) jusqu'à exposer un résidu de glucose terminal lié par une liaison (1→6)-α, qui peut être hydrolysée par l'activité glucosidase de cette même enzyme. La combinaison de ces deux activités enzymatiques forme l'enzyme de débranchement du glycogène.
 </t>
